--- a/biology/Botanique/Pueraria/Pueraria.xlsx
+++ b/biology/Botanique/Pueraria/Pueraria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pueraria est un genre botanique comprenant des espèces de plantes originaires d'Extrême-Orient. Elles sont utilisées comme substitut du tabac. Le kudzu est cultivé dans son aire d'origine pour ses racines fournissant une fécule alimentaire. C'est une plante grimpante qui peut se montrer par ailleurs très envahissante.
 </t>
@@ -511,12 +523,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (30 janvier 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (30 janvier 2014) :
 Pueraria montana (Lour.) Merr.
 Pueraria phaseoloïdes (Roxb.) Benth.
-Selon NCBI  (30 janvier 2014)[3] :
+Selon NCBI  (30 janvier 2014) :
 Pueraria candollei
 variété Pueraria candollei var. candollei
 variété Pueraria candollei var. mirifica
@@ -529,7 +543,7 @@
 Pueraria stricta
 Pueraria tuberosa
 Pueraria wallichii
-Selon The Plant List            (30 janvier 2014)[4] :
+Selon The Plant List            (30 janvier 2014) :
 Pueraria alopecuroides Craib
 Pueraria bella Prain
 Pueraria bouffordii H. Ohashi
@@ -551,7 +565,7 @@
 Pueraria wallichii DC.
 Pueraria xyzhuii H. Ohashi &amp; Iokawa
 Liste brute contenant possiblement des synonymes
-Selon Tropicos                                           (30 janvier 2014)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (30 janvier 2014) (Attention liste brute contenant possiblement des synonymes) :
 Pueraria alopecuroides Craib
 Pueraria anabaptis Kurz
 Pueraria argyi H. Lév. &amp; Vaniot
